--- a/other/Zotmail Analytics 2019.xlsx
+++ b/other/Zotmail Analytics 2019.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="11175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
-    <sheet name="Open Rate" sheetId="26" r:id="rId2"/>
+    <sheet name="Open Rates" sheetId="28" r:id="rId2"/>
     <sheet name="Click-through Rate" sheetId="5" r:id="rId3"/>
     <sheet name="Delete Not Open Rate" sheetId="18" r:id="rId4"/>
     <sheet name="Delete Not Open Rate (Chart)" sheetId="24" r:id="rId5"/>
@@ -22,11 +22,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Click-through Rate'!$A$20:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Delete Not Open Rate (Chart)'!$A$1:$N$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Open Rate'!$A$20:$E$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Open Rates'!$A$18:$E$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
     <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="153">
   <si>
     <t>ZotMail ID</t>
   </si>
@@ -403,9 +403,6 @@
     <t>Volunteer</t>
   </si>
   <si>
-    <t>Dine Out/Giving/Scholarship</t>
-  </si>
-  <si>
     <t>Committee</t>
   </si>
   <si>
@@ -451,16 +448,10 @@
     <t>Arts &amp; Entertainment</t>
   </si>
   <si>
-    <t>Dine Out/Scholarship</t>
-  </si>
-  <si>
     <t>Professional Development</t>
   </si>
   <si>
     <t>General Monthly</t>
-  </si>
-  <si>
-    <t>% Interest (Open Rates)</t>
   </si>
   <si>
     <t>Sum of Delete/Not Open Rate</t>
@@ -497,6 +488,15 @@
   </si>
   <si>
     <t>% Chg of Unsubscribed Total</t>
+  </si>
+  <si>
+    <t>Sum of Emails sent</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Dine Out/Giving</t>
   </si>
 </sst>
 </file>
@@ -718,6 +718,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="166" formatCode="0.0%"/>
     </dxf>
     <dxf>
@@ -770,90 +789,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="dddd"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -957,6 +892,72 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dddd"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1014,8 +1015,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Open Rates</a:t>
+              <a:t>Open</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rates</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1052,244 +1058,35 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-59FB-450F-94A2-61F3F01E4719}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-59FB-450F-94A2-61F3F01E4719}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-59FB-450F-94A2-61F3F01E4719}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-59FB-450F-94A2-61F3F01E4719}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-59FB-450F-94A2-61F3F01E4719}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-59FB-450F-94A2-61F3F01E4719}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-59FB-450F-94A2-61F3F01E4719}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-59FB-450F-94A2-61F3F01E4719}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-59FB-450F-94A2-61F3F01E4719}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Open Rates'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arts &amp; Entertainment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.2376749781277338E-2"/>
-                  <c:y val="4.9503499562554683E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-59FB-450F-94A2-61F3F01E4719}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.8149825021872264E-2"/>
-                  <c:y val="-5.3708442694663169E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-59FB-450F-94A2-61F3F01E4719}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1319,121 +1116,954 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Open Rate'!$A$21:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Professional Development</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dine Out/Scholarship</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>General Monthly</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sports</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Arts &amp; Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scholarship</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SA Leadership Awards</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Volunteer</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>SA Elections</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Open Rate'!$B$21:$B$29</c:f>
+              <c:f>'Open Rates'!$E$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25553</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19581</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18778</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15043</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14725</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8748</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8746</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7506</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7416</c:v>
+                  <c:v>0.22503935323154983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-59FB-450F-94A2-61F3F01E4719}"/>
+              <c16:uniqueId val="{00000000-E0E6-4EBD-90D8-28CA50B4D05F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Open Rates'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scholarship</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Open Rates'!$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.20211168357091699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0E6-4EBD-90D8-28CA50B4D05F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Open Rates'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SA Leadership Awards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Open Rates'!$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.20148823922408829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E0E6-4EBD-90D8-28CA50B4D05F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Open Rates'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Professional Develop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Open Rates'!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.19576642559450846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E0E6-4EBD-90D8-28CA50B4D05F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Open Rates'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dine Out/Giving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Open Rates'!$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.18019104060072882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E0E6-4EBD-90D8-28CA50B4D05F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Open Rates'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Open Rates'!$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.17300349618180144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E0E6-4EBD-90D8-28CA50B4D05F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Open Rates'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Open Rates'!$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.17270937954123208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E0E6-4EBD-90D8-28CA50B4D05F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Open Rates'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volunteer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Open Rates'!$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1709756042003599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E0E6-4EBD-90D8-28CA50B4D05F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Open Rates'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SA Elections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Open Rates'!$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.17062396466040861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E0E6-4EBD-90D8-28CA50B4D05F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="201475656"/>
+        <c:axId val="201466800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="201475656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201466800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="201466800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201475656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1442,6 +2072,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2110,7 +2772,7 @@
                   <c:v>Scholarship</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dine Out/Scholarship</c:v>
+                  <c:v>Dine Out/Giving</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>SA Leadership Awards</c:v>
@@ -2345,7 +3007,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Dine Out/Scholarship</c:v>
+                  <c:v>Dine Out/Giving</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Professional Develop</c:v>
@@ -2689,7 +3351,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2746,7 +3408,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2797,13 +3459,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2814,19 +3469,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2864,7 +3512,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2907,23 +3555,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3028,8 +3675,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3161,20 +3808,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4242,23 +4888,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>604470</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>5861</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>311393</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>82061</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5836,7 +6480,102 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Category">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item n="Arts &amp; Entertainment" x="0"/>
+        <item n="Dine Out/Giving" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Open Rate" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Delete/Not Open Rate" fld="14" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Category">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -6220,482 +6959,7 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item n="Arts &amp; Entertainment" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Open Rate" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Category">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item n="Arts &amp; Entertainment" x="0"/>
-        <item x="1"/>
+        <item n="Dine Out/Giving" x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -6805,7 +7069,7 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
         <item n="Arts &amp; Entertainment" x="5"/>
-        <item n="Dine Out/Scholarship" x="3"/>
+        <item n="Dine Out/Giving" x="3"/>
         <item x="4"/>
         <item x="1"/>
         <item x="6"/>
@@ -6860,45 +7124,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:T32" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:T32" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:T32"/>
   <sortState ref="A2:T32">
-    <sortCondition ref="C1:C32"/>
+    <sortCondition ref="M1:M32"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="ZotMail ID" dataDxfId="43"/>
-    <tableColumn id="20" name="Day of the week" dataDxfId="42">
+    <tableColumn id="1" name="ZotMail ID" dataDxfId="64"/>
+    <tableColumn id="20" name="Day of the week" dataDxfId="63">
       <calculatedColumnFormula>TEXT(C2,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Date" dataDxfId="41"/>
-    <tableColumn id="5" name="Subject" dataDxfId="40"/>
-    <tableColumn id="12" name="Open Rate" dataDxfId="39"/>
-    <tableColumn id="13" name="Delete/Not Open Rate" dataDxfId="38"/>
-    <tableColumn id="14" name="Click-thru Rate" dataDxfId="37"/>
-    <tableColumn id="15" name="# Unsubscribed" dataDxfId="36"/>
-    <tableColumn id="21" name="% Chg of Unsubscribed Total" dataDxfId="35" dataCellStyle="Percent">
+    <tableColumn id="2" name="Date" dataDxfId="62"/>
+    <tableColumn id="5" name="Subject" dataDxfId="61"/>
+    <tableColumn id="12" name="Open Rate" dataDxfId="60"/>
+    <tableColumn id="13" name="Delete/Not Open Rate" dataDxfId="59"/>
+    <tableColumn id="14" name="Click-thru Rate" dataDxfId="58"/>
+    <tableColumn id="15" name="# Unsubscribed" dataDxfId="57"/>
+    <tableColumn id="21" name="% Chg of Unsubscribed Total" dataDxfId="56" dataCellStyle="Percent">
       <calculatedColumnFormula>-(Table1[[#This Row],['# Unsubscribed]]-H3)/H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Open rate %" dataDxfId="26" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</calculatedColumnFormula>
+    <tableColumn id="19" name="Open rate %" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Notes" dataDxfId="34"/>
-    <tableColumn id="18" name="Committee" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="6" name="Category" dataDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="7" name="Status" dataDxfId="33"/>
-    <tableColumn id="3" name="From" dataDxfId="32"/>
-    <tableColumn id="4" name="To" dataDxfId="31"/>
-    <tableColumn id="8" name="Begin Sending" dataDxfId="30"/>
-    <tableColumn id="9" name="End Sending" dataDxfId="29"/>
-    <tableColumn id="10" name="Email Count" dataDxfId="28"/>
-    <tableColumn id="11" name="Analytics" dataDxfId="27"/>
+    <tableColumn id="16" name="Notes" dataDxfId="55"/>
+    <tableColumn id="18" name="Committee" dataDxfId="54" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="Category" dataDxfId="53" dataCellStyle="Percent"/>
+    <tableColumn id="7" name="Status" dataDxfId="52"/>
+    <tableColumn id="3" name="From" dataDxfId="51"/>
+    <tableColumn id="4" name="To" dataDxfId="50"/>
+    <tableColumn id="8" name="Begin Sending" dataDxfId="49"/>
+    <tableColumn id="9" name="End Sending" dataDxfId="48"/>
+    <tableColumn id="10" name="Email Count" dataDxfId="47"/>
+    <tableColumn id="11" name="Analytics" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:S32" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:S32" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:S32">
     <filterColumn colId="8">
       <filters>
@@ -6927,67 +7191,67 @@
     <sortCondition ref="S1:S32"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="ZotMail ID" dataDxfId="64"/>
-    <tableColumn id="20" name="Day of the week" dataDxfId="63">
+    <tableColumn id="1" name="ZotMail ID" dataDxfId="43"/>
+    <tableColumn id="20" name="Day of the week" dataDxfId="42">
       <calculatedColumnFormula>TEXT(C2,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Date" dataDxfId="62"/>
-    <tableColumn id="3" name="From" dataDxfId="61"/>
-    <tableColumn id="4" name="To" dataDxfId="60"/>
-    <tableColumn id="5" name="Subject" dataDxfId="59"/>
-    <tableColumn id="12" name="Open Rate" dataDxfId="58"/>
-    <tableColumn id="13" name="Delete/Not Open Rate" dataDxfId="57"/>
-    <tableColumn id="14" name="Click-thru Rate" dataDxfId="56"/>
-    <tableColumn id="15" name="# Unsubscribed" dataDxfId="55"/>
-    <tableColumn id="16" name="Column1" dataDxfId="54"/>
-    <tableColumn id="7" name="Status" dataDxfId="53"/>
-    <tableColumn id="8" name="Begin Sending" dataDxfId="52"/>
-    <tableColumn id="9" name="End Sending" dataDxfId="51"/>
-    <tableColumn id="10" name="Email Count" dataDxfId="50"/>
-    <tableColumn id="11" name="Analytics" dataDxfId="49"/>
-    <tableColumn id="17" name="Open rate %" dataDxfId="48" dataCellStyle="Percent">
+    <tableColumn id="2" name="Date" dataDxfId="41"/>
+    <tableColumn id="3" name="From" dataDxfId="40"/>
+    <tableColumn id="4" name="To" dataDxfId="39"/>
+    <tableColumn id="5" name="Subject" dataDxfId="38"/>
+    <tableColumn id="12" name="Open Rate" dataDxfId="37"/>
+    <tableColumn id="13" name="Delete/Not Open Rate" dataDxfId="36"/>
+    <tableColumn id="14" name="Click-thru Rate" dataDxfId="35"/>
+    <tableColumn id="15" name="# Unsubscribed" dataDxfId="34"/>
+    <tableColumn id="16" name="Column1" dataDxfId="33"/>
+    <tableColumn id="7" name="Status" dataDxfId="32"/>
+    <tableColumn id="8" name="Begin Sending" dataDxfId="31"/>
+    <tableColumn id="9" name="End Sending" dataDxfId="30"/>
+    <tableColumn id="10" name="Email Count" dataDxfId="29"/>
+    <tableColumn id="11" name="Analytics" dataDxfId="28"/>
+    <tableColumn id="17" name="Open rate %" dataDxfId="27" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13[[#This Row],[Open Rate]]/Table13[[#This Row],[Delete/Not Open Rate]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Committee" dataDxfId="47" dataCellStyle="Percent"/>
-    <tableColumn id="6" name="Category" dataDxfId="46" dataCellStyle="Percent"/>
+    <tableColumn id="18" name="Committee" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="Category" dataDxfId="25" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:T32" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:T32" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:T32"/>
   <sortState ref="A2:T32">
     <sortCondition ref="C1:C32"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="ZotMail ID" dataDxfId="21"/>
-    <tableColumn id="20" name="Day of the week" dataDxfId="20">
+    <tableColumn id="1" name="ZotMail ID" dataDxfId="22"/>
+    <tableColumn id="20" name="Day of the week" dataDxfId="21">
       <calculatedColumnFormula>TEXT(C2,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Date" dataDxfId="19"/>
-    <tableColumn id="5" name="Subject" dataDxfId="18"/>
-    <tableColumn id="12" name="Open Rate" dataDxfId="17"/>
-    <tableColumn id="13" name="Delete/Not Open Rate" dataDxfId="16"/>
-    <tableColumn id="14" name="Click-thru Rate" dataDxfId="15"/>
-    <tableColumn id="15" name="# Unsubscribed" dataDxfId="14"/>
-    <tableColumn id="21" name="% Chg of Unsubscribed Total" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="2" name="Date" dataDxfId="20"/>
+    <tableColumn id="5" name="Subject" dataDxfId="19"/>
+    <tableColumn id="12" name="Open Rate" dataDxfId="18"/>
+    <tableColumn id="13" name="Delete/Not Open Rate" dataDxfId="17"/>
+    <tableColumn id="14" name="Click-thru Rate" dataDxfId="16"/>
+    <tableColumn id="15" name="# Unsubscribed" dataDxfId="15"/>
+    <tableColumn id="21" name="% Chg of Unsubscribed Total" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>-(Table15[[#This Row],['# Unsubscribed]]-H3)/H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Open rate %" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="19" name="Open rate %" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table15[[#This Row],[Open Rate]]/Table15[[#This Row],[Delete/Not Open Rate]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Notes" dataDxfId="11"/>
-    <tableColumn id="18" name="Committee" dataDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="6" name="Category" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="7" name="Status" dataDxfId="8"/>
-    <tableColumn id="3" name="From" dataDxfId="7"/>
-    <tableColumn id="4" name="To" dataDxfId="6"/>
-    <tableColumn id="8" name="Begin Sending" dataDxfId="5"/>
-    <tableColumn id="9" name="End Sending" dataDxfId="4"/>
-    <tableColumn id="10" name="Email Count" dataDxfId="3"/>
-    <tableColumn id="11" name="Analytics" dataDxfId="2"/>
+    <tableColumn id="16" name="Notes" dataDxfId="12"/>
+    <tableColumn id="18" name="Committee" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="Category" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="7" name="Status" dataDxfId="9"/>
+    <tableColumn id="3" name="From" dataDxfId="8"/>
+    <tableColumn id="4" name="To" dataDxfId="7"/>
+    <tableColumn id="8" name="Begin Sending" dataDxfId="6"/>
+    <tableColumn id="9" name="End Sending" dataDxfId="5"/>
+    <tableColumn id="10" name="Email Count" dataDxfId="4"/>
+    <tableColumn id="11" name="Analytics" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6997,9 +7261,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="X9:Z15" totalsRowShown="0">
   <autoFilter ref="X9:Z15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Month" dataDxfId="1"/>
+    <tableColumn id="1" name="Month" dataDxfId="2"/>
     <tableColumn id="2" name="End of Month Unsubscribe"/>
-    <tableColumn id="3" name="% Change" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="3" name="% Change" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>(Y10-Y9)/Y9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7272,8 +7536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7281,19 +7545,21 @@
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" customWidth="1"/>
     <col min="6" max="6" width="49.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="13" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="31" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
     <col min="17" max="18" width="9.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.140625" customWidth="1"/>
     <col min="23" max="23" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="10" customWidth="1"/>
@@ -7310,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>110</v>
@@ -7325,22 +7591,22 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>109</v>
@@ -7369,43 +7635,44 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>82078</v>
+        <v>82913</v>
       </c>
       <c r="B2" s="12" t="str">
         <f>TEXT(C2,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Thursday</v>
       </c>
       <c r="C2" s="2">
-        <v>43467</v>
+        <v>43559</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
-        <v>3861</v>
+        <v>5131</v>
       </c>
       <c r="F2" s="1">
-        <v>17639</v>
+        <v>16690</v>
       </c>
       <c r="G2" s="1">
-        <v>750</v>
+        <v>1130</v>
       </c>
       <c r="H2" s="1">
-        <v>1190</v>
-      </c>
-      <c r="I2" s="30">
-        <v>0</v>
+        <v>1267</v>
+      </c>
+      <c r="I2" s="30" t="e">
+        <f>(Table1[[#This Row],['# Unsubscribed]]-H1)/H1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J2" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.21888995974828504</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.23514046102378444</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>12</v>
@@ -7417,61 +7684,66 @@
         <v>11</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="S2" s="1">
-        <v>21500</v>
+        <v>21821</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="V2" s="1">
+        <f>SUM(E2:F2)</f>
+        <v>21821</v>
+      </c>
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>82162</v>
+        <v>82762</v>
       </c>
       <c r="B3" s="12" t="str">
         <f>TEXT(C3,"dddd")</f>
-        <v>Friday</v>
+        <v>Monday</v>
       </c>
       <c r="C3" s="2">
-        <v>43476</v>
+        <v>43549</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1">
-        <v>3936</v>
+        <v>5399</v>
       </c>
       <c r="F3" s="1">
-        <v>17684</v>
+        <v>16366</v>
       </c>
       <c r="G3" s="1">
-        <v>126</v>
+        <v>1186</v>
       </c>
       <c r="H3" s="1">
-        <v>1204</v>
+        <v>1266</v>
       </c>
       <c r="I3" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H2)/H2</f>
-        <v>1.1764705882352941E-2</v>
+        <v>-7.8926598263614838E-4</v>
       </c>
       <c r="J3" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.22257407826283646</v>
-      </c>
-      <c r="K3" s="1"/>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.24805881001608088</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>12</v>
@@ -7483,61 +7755,64 @@
         <v>11</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="S3" s="1">
-        <v>21620</v>
+        <v>21765</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V32" si="0">SUM(E3:F3)</f>
+        <v>21765</v>
+      </c>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>82181</v>
+        <v>82289</v>
       </c>
       <c r="B4" s="12" t="str">
         <f>TEXT(C4,"dddd")</f>
-        <v>Tuesday</v>
+        <v>Monday</v>
       </c>
       <c r="C4" s="2">
-        <v>43480</v>
+        <v>43493</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
-        <v>4684</v>
+        <v>4195</v>
       </c>
       <c r="F4" s="1">
-        <v>16984</v>
+        <v>17652</v>
       </c>
       <c r="G4" s="1">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="H4" s="1">
-        <v>1211</v>
+        <v>1233</v>
       </c>
       <c r="I4" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H3)/H3</f>
-        <v>5.8139534883720929E-3</v>
+        <v>-2.6066350710900472E-2</v>
       </c>
       <c r="J4" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.27578897786151674</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.19201721060099786</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>12</v>
@@ -7549,61 +7824,64 @@
         <v>11</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S4" s="1">
-        <v>21668</v>
+        <v>21847</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>21847</v>
+      </c>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>82192</v>
+        <v>83125</v>
       </c>
       <c r="B5" s="12" t="str">
         <f>TEXT(C5,"dddd")</f>
         <v>Tuesday</v>
       </c>
       <c r="C5" s="2">
-        <v>43480</v>
+        <v>43578</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1">
-        <v>4253</v>
+        <v>3925</v>
       </c>
       <c r="F5" s="1">
-        <v>17414</v>
+        <v>18052</v>
       </c>
       <c r="G5" s="1">
-        <v>816</v>
+        <v>139</v>
       </c>
       <c r="H5" s="1">
-        <v>1212</v>
+        <v>1291</v>
       </c>
       <c r="I5" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H4)/H4</f>
-        <v>8.2576383154417832E-4</v>
+        <v>4.7039740470397405E-2</v>
       </c>
       <c r="J5" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.2442287814402205</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.17859580470491879</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>12</v>
@@ -7615,61 +7893,64 @@
         <v>11</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="S5" s="1">
-        <v>21667</v>
+        <v>21977</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="V5" s="1">
+        <f t="shared" si="0"/>
+        <v>21977</v>
+      </c>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>82256</v>
+        <v>82968</v>
       </c>
       <c r="B6" s="12" t="str">
         <f>TEXT(C6,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Thursday</v>
       </c>
       <c r="C6" s="2">
-        <v>43488</v>
+        <v>43566</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1">
-        <v>4021</v>
+        <v>3916</v>
       </c>
       <c r="F6" s="1">
-        <v>17758</v>
+        <v>17969</v>
       </c>
       <c r="G6" s="1">
-        <v>255</v>
+        <v>89</v>
       </c>
       <c r="H6" s="1">
-        <v>1225</v>
+        <v>1274</v>
       </c>
       <c r="I6" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H5)/H5</f>
-        <v>1.0726072607260726E-2</v>
+        <v>-1.3168086754453912E-2</v>
       </c>
       <c r="J6" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.22643315688703683</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.1789353438428147</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>12</v>
@@ -7681,61 +7962,64 @@
         <v>11</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="S6" s="1">
-        <v>21779</v>
+        <v>21885</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="V6" s="1">
+        <f t="shared" si="0"/>
+        <v>21885</v>
+      </c>
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>82289</v>
+        <v>82741</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>TEXT(C7,"dddd")</f>
-        <v>Monday</v>
+        <v>Thursday</v>
       </c>
       <c r="C7" s="2">
-        <v>43493</v>
+        <v>43545</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1">
-        <v>4195</v>
+        <v>4023</v>
       </c>
       <c r="F7" s="1">
-        <v>17652</v>
+        <v>17678</v>
       </c>
       <c r="G7" s="1">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="H7" s="1">
-        <v>1233</v>
+        <v>1268</v>
       </c>
       <c r="I7" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H6)/H6</f>
-        <v>6.5306122448979594E-3</v>
+        <v>-4.7095761381475663E-3</v>
       </c>
       <c r="J7" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.23765012463176977</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.18538316206626423</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>12</v>
@@ -7747,61 +8031,64 @@
         <v>11</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="S7" s="1">
-        <v>21847</v>
+        <v>21701</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>21701</v>
+      </c>
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>82291</v>
+        <v>82514</v>
       </c>
       <c r="B8" s="12" t="str">
         <f>TEXT(C8,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="C8" s="2">
-        <v>43493</v>
+        <v>43521</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1">
-        <v>4539</v>
+        <v>3781</v>
       </c>
       <c r="F8" s="1">
-        <v>17308</v>
+        <v>17704</v>
       </c>
       <c r="G8" s="1">
-        <v>860</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="I8" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H7)/H7</f>
-        <v>0</v>
+        <v>-3.5488958990536279E-2</v>
       </c>
       <c r="J8" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.26224867113473538</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.17598324412380731</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>12</v>
@@ -7813,61 +8100,64 @@
         <v>11</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="S8" s="1">
-        <v>21847</v>
+        <v>21485</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="V8" s="1">
+        <f t="shared" si="0"/>
+        <v>21485</v>
+      </c>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>82320</v>
+        <v>82162</v>
       </c>
       <c r="B9" s="12" t="str">
         <f>TEXT(C9,"dddd")</f>
-        <v>Thursday</v>
+        <v>Friday</v>
       </c>
       <c r="C9" s="2">
-        <v>43496</v>
+        <v>43476</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
-        <v>3531</v>
+        <v>3936</v>
       </c>
       <c r="F9" s="1">
-        <v>18337</v>
+        <v>17684</v>
       </c>
       <c r="G9" s="1">
-        <v>971</v>
+        <v>126</v>
       </c>
       <c r="H9" s="1">
-        <v>1233</v>
+        <v>1204</v>
       </c>
       <c r="I9" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H8)/H8</f>
-        <v>0</v>
+        <v>-1.5535568274734259E-2</v>
       </c>
       <c r="J9" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.19256148770245951</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.1820536540240518</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>12</v>
@@ -7879,61 +8169,66 @@
         <v>11</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="S9" s="1">
-        <v>21868</v>
+        <v>21620</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="V9" s="1">
+        <f t="shared" si="0"/>
+        <v>21620</v>
+      </c>
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>82514</v>
+        <v>83187</v>
       </c>
       <c r="B10" s="12" t="str">
         <f>TEXT(C10,"dddd")</f>
-        <v>Monday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C10" s="2">
-        <v>43521</v>
+        <v>43585</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1">
-        <v>3781</v>
+        <v>3932</v>
       </c>
       <c r="F10" s="1">
-        <v>17704</v>
+        <v>18102</v>
       </c>
       <c r="G10" s="1">
-        <v>99</v>
+        <v>1477</v>
       </c>
       <c r="H10" s="1">
-        <v>1223</v>
+        <v>1303</v>
       </c>
       <c r="I10" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H9)/H9</f>
-        <v>-8.1103000811030002E-3</v>
+        <v>8.2225913621262456E-2</v>
       </c>
       <c r="J10" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.21356755535472211</v>
-      </c>
-      <c r="K10" s="1"/>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.17845148407007352</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="L10" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>12</v>
@@ -7945,58 +8240,61 @@
         <v>11</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="S10" s="1">
-        <v>21485</v>
+        <v>22034</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="V10" s="1">
+        <f t="shared" si="0"/>
+        <v>22034</v>
+      </c>
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>82561</v>
+        <v>82883</v>
       </c>
       <c r="B11" s="12" t="str">
         <f>TEXT(C11,"dddd")</f>
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C11" s="2">
-        <v>43524</v>
+        <v>43558</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1">
-        <v>3799</v>
+        <v>3655</v>
       </c>
       <c r="F11" s="1">
-        <v>17712</v>
+        <v>18158</v>
       </c>
       <c r="G11" s="1">
-        <v>1013</v>
+        <v>1080</v>
       </c>
       <c r="H11" s="1">
-        <v>1235</v>
+        <v>1264</v>
       </c>
       <c r="I11" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H10)/H10</f>
-        <v>9.8119378577269014E-3</v>
+        <v>-2.9930928626247123E-2</v>
       </c>
       <c r="J11" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.21448735320686541</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.16756062898271673</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>116</v>
@@ -8011,61 +8309,64 @@
         <v>11</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="S11" s="1">
-        <v>21511</v>
+        <v>21813</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="V11" s="1">
+        <f t="shared" si="0"/>
+        <v>21813</v>
+      </c>
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>82625</v>
+        <v>82561</v>
       </c>
       <c r="B12" s="12" t="str">
         <f>TEXT(C12,"dddd")</f>
-        <v>Friday</v>
+        <v>Thursday</v>
       </c>
       <c r="C12" s="2">
-        <v>43532</v>
+        <v>43524</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1">
-        <v>4452</v>
+        <v>3799</v>
       </c>
       <c r="F12" s="1">
-        <v>17160</v>
+        <v>17712</v>
       </c>
       <c r="G12" s="1">
-        <v>274</v>
+        <v>1013</v>
       </c>
       <c r="H12" s="1">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="I12" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H11)/H11</f>
-        <v>8.9068825910931168E-3</v>
+        <v>-2.2943037974683545E-2</v>
       </c>
       <c r="J12" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.25944055944055944</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.17660731718655573</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>12</v>
@@ -8077,61 +8378,64 @@
         <v>11</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S12" s="1">
-        <v>21612</v>
+        <v>21511</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="V12" s="1">
+        <f t="shared" si="0"/>
+        <v>21511</v>
+      </c>
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>82658</v>
+        <v>82320</v>
       </c>
       <c r="B13" s="12" t="str">
         <f>TEXT(C13,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Thursday</v>
       </c>
       <c r="C13" s="2">
-        <v>43537</v>
+        <v>43496</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1">
-        <v>3691</v>
+        <v>3531</v>
       </c>
       <c r="F13" s="1">
-        <v>17936</v>
+        <v>18337</v>
       </c>
       <c r="G13" s="1">
-        <v>385</v>
+        <v>971</v>
       </c>
       <c r="H13" s="1">
-        <v>1251</v>
+        <v>1233</v>
       </c>
       <c r="I13" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H12)/H12</f>
-        <v>4.0128410914927765E-3</v>
+        <v>-1.6194331983805667E-3</v>
       </c>
       <c r="J13" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.20578724353256023</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.16146881287726358</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>12</v>
@@ -8143,61 +8447,63 @@
         <v>11</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S13" s="1">
-        <v>21627</v>
+        <v>21868</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="1">
+        <f t="shared" si="0"/>
+        <v>21868</v>
+      </c>
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>82669</v>
+        <v>82078</v>
       </c>
       <c r="B14" s="12" t="str">
         <f>TEXT(C14,"dddd")</f>
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C14" s="2">
-        <v>43538</v>
+        <v>43467</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
-        <v>3759</v>
+        <v>3861</v>
       </c>
       <c r="F14" s="1">
-        <v>17864</v>
+        <v>17639</v>
       </c>
       <c r="G14" s="1">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="H14" s="1">
-        <v>1253</v>
+        <v>1190</v>
       </c>
       <c r="I14" s="30">
-        <f>(Table1[[#This Row],['# Unsubscribed]]-H13)/H13</f>
-        <v>1.5987210231814548E-3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.21042319749216301</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.17958139534883721</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>12</v>
@@ -8209,61 +8515,64 @@
         <v>11</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="S14" s="1">
-        <v>21623</v>
+        <v>21500</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="1">
+        <f t="shared" si="0"/>
+        <v>21500</v>
+      </c>
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>82741</v>
+        <v>83284</v>
       </c>
       <c r="B15" s="12" t="str">
         <f>TEXT(C15,"dddd")</f>
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C15" s="2">
-        <v>43545</v>
+        <v>43593</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1">
-        <v>4023</v>
+        <v>3760</v>
       </c>
       <c r="F15" s="1">
-        <v>17678</v>
+        <v>17573</v>
       </c>
       <c r="G15" s="1">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="H15" s="1">
-        <v>1268</v>
+        <v>1294</v>
       </c>
       <c r="I15" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H14)/H14</f>
-        <v>1.1971268954509178E-2</v>
+        <v>8.7394957983193272E-2</v>
       </c>
       <c r="J15" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.22757099219368707</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.17625275394928044</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>12</v>
@@ -8275,63 +8584,64 @@
         <v>11</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="S15" s="1">
-        <v>21701</v>
+        <v>21333</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="1">
+        <f t="shared" si="0"/>
+        <v>21333</v>
+      </c>
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>82762</v>
+        <v>83057</v>
       </c>
       <c r="B16" s="12" t="str">
         <f>TEXT(C16,"dddd")</f>
-        <v>Monday</v>
+        <v>Thursday</v>
       </c>
       <c r="C16" s="2">
-        <v>43549</v>
+        <v>43573</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1">
-        <v>5399</v>
+        <v>4456</v>
       </c>
       <c r="F16" s="1">
-        <v>16366</v>
+        <v>17502</v>
       </c>
       <c r="G16" s="1">
-        <v>1186</v>
+        <v>628</v>
       </c>
       <c r="H16" s="1">
-        <v>1266</v>
+        <v>1283</v>
       </c>
       <c r="I16" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H15)/H15</f>
-        <v>-1.5772870662460567E-3</v>
+        <v>-8.5007727975270481E-3</v>
       </c>
       <c r="J16" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.32989123793229869</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>108</v>
-      </c>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.20293287184625194</v>
+      </c>
+      <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>12</v>
@@ -8343,61 +8653,64 @@
         <v>11</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="S16" s="1">
-        <v>21765</v>
+        <v>21958</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="1">
+        <f t="shared" si="0"/>
+        <v>21958</v>
+      </c>
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>82800</v>
+        <v>83049</v>
       </c>
       <c r="B17" s="12" t="str">
         <f>TEXT(C17,"dddd")</f>
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C17" s="2">
-        <v>43552</v>
+        <v>43572</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1">
-        <v>4294</v>
+        <v>4093</v>
       </c>
       <c r="F17" s="1">
-        <v>17501</v>
+        <v>17850</v>
       </c>
       <c r="G17" s="1">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="H17" s="1">
-        <v>1266</v>
+        <v>1278</v>
       </c>
       <c r="I17" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H16)/H16</f>
-        <v>0</v>
+        <v>-3.897116134060795E-3</v>
       </c>
       <c r="J17" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.24535740814810583</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.18652873353689103</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>12</v>
@@ -8409,61 +8722,64 @@
         <v>11</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="S17" s="1">
-        <v>21795</v>
+        <v>21943</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
+      <c r="V17" s="1">
+        <f t="shared" si="0"/>
+        <v>21943</v>
+      </c>
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>82883</v>
+        <v>82291</v>
       </c>
       <c r="B18" s="12" t="str">
         <f>TEXT(C18,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Monday</v>
       </c>
       <c r="C18" s="2">
-        <v>43558</v>
+        <v>43493</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1">
-        <v>3655</v>
+        <v>4539</v>
       </c>
       <c r="F18" s="1">
-        <v>18158</v>
+        <v>17308</v>
       </c>
       <c r="G18" s="1">
-        <v>1080</v>
+        <v>860</v>
       </c>
       <c r="H18" s="1">
-        <v>1264</v>
+        <v>1233</v>
       </c>
       <c r="I18" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H17)/H17</f>
-        <v>-1.5797788309636651E-3</v>
+        <v>-3.5211267605633804E-2</v>
       </c>
       <c r="J18" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.20128868818151779</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.20776307959902962</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>12</v>
@@ -8475,61 +8791,64 @@
         <v>11</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="S18" s="1">
-        <v>21813</v>
+        <v>21847</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+      <c r="V18" s="1">
+        <f t="shared" si="0"/>
+        <v>21847</v>
+      </c>
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>82913</v>
+        <v>82256</v>
       </c>
       <c r="B19" s="12" t="str">
         <f>TEXT(C19,"dddd")</f>
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C19" s="2">
-        <v>43559</v>
+        <v>43488</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1">
-        <v>5131</v>
+        <v>4021</v>
       </c>
       <c r="F19" s="1">
-        <v>16690</v>
+        <v>17758</v>
       </c>
       <c r="G19" s="1">
-        <v>1130</v>
+        <v>255</v>
       </c>
       <c r="H19" s="1">
-        <v>1267</v>
+        <v>1225</v>
       </c>
       <c r="I19" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H18)/H18</f>
-        <v>2.3734177215189874E-3</v>
+        <v>-6.4882400648824008E-3</v>
       </c>
       <c r="J19" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.30742959856201318</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.18462739336057671</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>12</v>
@@ -8541,61 +8860,64 @@
         <v>11</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="S19" s="1">
-        <v>21821</v>
+        <v>21779</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="V19" s="1">
+        <f t="shared" si="0"/>
+        <v>21779</v>
+      </c>
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>82931</v>
+        <v>82181</v>
       </c>
       <c r="B20" s="12" t="str">
         <f>TEXT(C20,"dddd")</f>
-        <v>Monday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C20" s="2">
-        <v>43563</v>
+        <v>43480</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
-        <v>3640</v>
+        <v>4684</v>
       </c>
       <c r="F20" s="1">
-        <v>18232</v>
+        <v>16984</v>
       </c>
       <c r="G20" s="1">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="H20" s="1">
-        <v>1269</v>
+        <v>1211</v>
       </c>
       <c r="I20" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H19)/H19</f>
-        <v>1.5785319652722968E-3</v>
+        <v>-1.1428571428571429E-2</v>
       </c>
       <c r="J20" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.19964896884598507</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.21617131253461325</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>12</v>
@@ -8607,61 +8929,64 @@
         <v>11</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="S20" s="1">
-        <v>21872</v>
+        <v>21668</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="1">
+        <f t="shared" si="0"/>
+        <v>21668</v>
+      </c>
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>82968</v>
+        <v>83318</v>
       </c>
       <c r="B21" s="12" t="str">
         <f>TEXT(C21,"dddd")</f>
-        <v>Thursday</v>
+        <v>Monday</v>
       </c>
       <c r="C21" s="2">
-        <v>43566</v>
+        <v>43598</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1">
-        <v>3916</v>
+        <v>3668</v>
       </c>
       <c r="F21" s="1">
-        <v>17969</v>
+        <v>17743</v>
       </c>
       <c r="G21" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H21" s="1">
-        <v>1274</v>
+        <v>1298</v>
       </c>
       <c r="I21" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H20)/H20</f>
-        <v>3.9401103230890461E-3</v>
+        <v>7.1841453344343512E-2</v>
       </c>
       <c r="J21" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.21793088096165619</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.17131381065807294</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>12</v>
@@ -8673,61 +8998,64 @@
         <v>11</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="S21" s="1">
-        <v>21885</v>
+        <v>21411</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="1">
+        <f t="shared" si="0"/>
+        <v>21411</v>
+      </c>
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>83021</v>
+        <v>83200</v>
       </c>
       <c r="B22" s="12" t="str">
         <f>TEXT(C22,"dddd")</f>
-        <v>Monday</v>
+        <v>Thursday</v>
       </c>
       <c r="C22" s="2">
-        <v>43570</v>
+        <v>43587</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1">
-        <v>4530</v>
+        <v>3748</v>
       </c>
       <c r="F22" s="1">
-        <v>17387</v>
+        <v>18305</v>
       </c>
       <c r="G22" s="1">
-        <v>642</v>
+        <v>156</v>
       </c>
       <c r="H22" s="1">
-        <v>1277</v>
+        <v>1305</v>
       </c>
       <c r="I22" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H21)/H21</f>
-        <v>2.3547880690737832E-3</v>
+        <v>5.3929121725731898E-3</v>
       </c>
       <c r="J22" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.26053948352217171</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.16995420124246136</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>12</v>
@@ -8739,61 +9067,64 @@
         <v>11</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="S22" s="1">
-        <v>21917</v>
+        <v>22053</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="1">
+        <f t="shared" si="0"/>
+        <v>22053</v>
+      </c>
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>83049</v>
+        <v>82800</v>
       </c>
       <c r="B23" s="12" t="str">
         <f>TEXT(C23,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Thursday</v>
       </c>
       <c r="C23" s="2">
-        <v>43572</v>
+        <v>43552</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1">
-        <v>4093</v>
+        <v>4294</v>
       </c>
       <c r="F23" s="1">
-        <v>17850</v>
+        <v>17501</v>
       </c>
       <c r="G23" s="1">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="H23" s="1">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="I23" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H22)/H22</f>
-        <v>7.8308535630383712E-4</v>
+        <v>-2.9885057471264367E-2</v>
       </c>
       <c r="J23" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.22929971988795519</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.19701766460197292</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
         <v>128</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>12</v>
@@ -8805,61 +9136,64 @@
         <v>11</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="S23" s="1">
-        <v>21943</v>
+        <v>21795</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="1">
+        <f t="shared" si="0"/>
+        <v>21795</v>
+      </c>
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>83057</v>
+        <v>82625</v>
       </c>
       <c r="B24" s="12" t="str">
         <f>TEXT(C24,"dddd")</f>
-        <v>Thursday</v>
+        <v>Friday</v>
       </c>
       <c r="C24" s="2">
-        <v>43573</v>
+        <v>43532</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1">
-        <v>4456</v>
+        <v>4452</v>
       </c>
       <c r="F24" s="1">
-        <v>17502</v>
+        <v>17160</v>
       </c>
       <c r="G24" s="1">
-        <v>628</v>
+        <v>274</v>
       </c>
       <c r="H24" s="1">
-        <v>1283</v>
+        <v>1246</v>
       </c>
       <c r="I24" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H23)/H23</f>
-        <v>3.9123630672926448E-3</v>
+        <v>-1.579778830963665E-2</v>
       </c>
       <c r="J24" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.25459947434578906</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.20599666851749029</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>12</v>
@@ -8871,61 +9205,64 @@
         <v>11</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="S24" s="1">
-        <v>21958</v>
+        <v>21612</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="V24" s="1">
+        <f t="shared" si="0"/>
+        <v>21612</v>
+      </c>
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>83125</v>
+        <v>83293</v>
       </c>
       <c r="B25" s="12" t="str">
         <f>TEXT(C25,"dddd")</f>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="C25" s="2">
-        <v>43578</v>
+        <v>43594</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1">
-        <v>3925</v>
+        <v>4218</v>
       </c>
       <c r="F25" s="1">
-        <v>18052</v>
+        <v>17148</v>
       </c>
       <c r="G25" s="1">
-        <v>139</v>
+        <v>444</v>
       </c>
       <c r="H25" s="1">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="I25" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H24)/H24</f>
-        <v>6.2353858144972721E-3</v>
+        <v>4.0128410914927769E-2</v>
       </c>
       <c r="J25" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.21742743186350544</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.19741645605167088</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
         <v>118</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>12</v>
@@ -8937,63 +9274,64 @@
         <v>11</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="S25" s="1">
-        <v>21977</v>
+        <v>21366</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="V25" s="1">
+        <f t="shared" si="0"/>
+        <v>21366</v>
+      </c>
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>83187</v>
+        <v>83021</v>
       </c>
       <c r="B26" s="12" t="str">
         <f>TEXT(C26,"dddd")</f>
-        <v>Tuesday</v>
+        <v>Monday</v>
       </c>
       <c r="C26" s="2">
-        <v>43585</v>
+        <v>43570</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1">
-        <v>3932</v>
+        <v>4530</v>
       </c>
       <c r="F26" s="1">
-        <v>18102</v>
+        <v>17387</v>
       </c>
       <c r="G26" s="1">
-        <v>1477</v>
+        <v>642</v>
       </c>
       <c r="H26" s="1">
-        <v>1303</v>
+        <v>1277</v>
       </c>
       <c r="I26" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H25)/H25</f>
-        <v>9.2951200619674663E-3</v>
+        <v>-1.4660493827160493E-2</v>
       </c>
       <c r="J26" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.21721356756159541</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>106</v>
-      </c>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.20668887165214217</v>
+      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>12</v>
@@ -9005,61 +9343,64 @@
         <v>11</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S26" s="1">
-        <v>22034</v>
+        <v>21917</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="1">
+        <f t="shared" si="0"/>
+        <v>21917</v>
+      </c>
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>83192</v>
+        <v>83248</v>
       </c>
       <c r="B27" s="12" t="str">
         <f>TEXT(C27,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Monday</v>
       </c>
       <c r="C27" s="2">
-        <v>43586</v>
+        <v>43591</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1">
-        <v>3866</v>
+        <v>3340</v>
       </c>
       <c r="F27" s="1">
-        <v>18163</v>
+        <v>18695</v>
       </c>
       <c r="G27" s="1">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="H27" s="1">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="I27" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H26)/H26</f>
-        <v>1.5349194167306216E-3</v>
+        <v>1.8794048551292093E-2</v>
       </c>
       <c r="J27" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.21285030006056269</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.15157703653278876</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>12</v>
@@ -9071,61 +9412,64 @@
         <v>11</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="S27" s="1">
-        <v>22029</v>
+        <v>22035</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
+      <c r="V27" s="1">
+        <f t="shared" si="0"/>
+        <v>22035</v>
+      </c>
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>83200</v>
+        <v>82669</v>
       </c>
       <c r="B28" s="12" t="str">
         <f>TEXT(C28,"dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="C28" s="2">
-        <v>43587</v>
+        <v>43538</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1">
-        <v>3748</v>
+        <v>3759</v>
       </c>
       <c r="F28" s="1">
-        <v>18305</v>
+        <v>17864</v>
       </c>
       <c r="G28" s="1">
-        <v>156</v>
+        <v>765</v>
       </c>
       <c r="H28" s="1">
-        <v>1305</v>
+        <v>1253</v>
       </c>
       <c r="I28" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H27)/H27</f>
-        <v>0</v>
+        <v>-3.6894696387394309E-2</v>
       </c>
       <c r="J28" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.20475279978148048</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.17384266752994496</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>12</v>
@@ -9137,58 +9481,61 @@
         <v>11</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="S28" s="1">
-        <v>22053</v>
+        <v>21623</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="V28" s="1">
+        <f t="shared" si="0"/>
+        <v>21623</v>
+      </c>
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>83248</v>
+        <v>82658</v>
       </c>
       <c r="B29" s="12" t="str">
         <f>TEXT(C29,"dddd")</f>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C29" s="2">
-        <v>43591</v>
+        <v>43537</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1">
-        <v>3340</v>
+        <v>3691</v>
       </c>
       <c r="F29" s="1">
-        <v>18695</v>
+        <v>17936</v>
       </c>
       <c r="G29" s="1">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="H29" s="1">
-        <v>1301</v>
+        <v>1251</v>
       </c>
       <c r="I29" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H28)/H28</f>
-        <v>-3.0651340996168583E-3</v>
+        <v>-1.5961691939345571E-3</v>
       </c>
       <c r="J29" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.17865739502540787</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.17066629675868128</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>119</v>
@@ -9203,61 +9550,64 @@
         <v>11</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="S29" s="1">
-        <v>22035</v>
+        <v>21627</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
+      <c r="V29" s="1">
+        <f t="shared" si="0"/>
+        <v>21627</v>
+      </c>
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>83284</v>
+        <v>82192</v>
       </c>
       <c r="B30" s="12" t="str">
         <f>TEXT(C30,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C30" s="2">
-        <v>43593</v>
+        <v>43480</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1">
-        <v>3760</v>
+        <v>4253</v>
       </c>
       <c r="F30" s="1">
-        <v>17573</v>
+        <v>17414</v>
       </c>
       <c r="G30" s="1">
-        <v>69</v>
+        <v>816</v>
       </c>
       <c r="H30" s="1">
-        <v>1294</v>
+        <v>1212</v>
       </c>
       <c r="I30" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H29)/H29</f>
-        <v>-5.3804765564950041E-3</v>
+        <v>-3.117505995203837E-2</v>
       </c>
       <c r="J30" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.21396460479144142</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.19628928785710989</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>12</v>
@@ -9269,61 +9619,64 @@
         <v>11</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="S30" s="1">
-        <v>21333</v>
+        <v>21667</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
+      <c r="V30" s="1">
+        <f t="shared" si="0"/>
+        <v>21667</v>
+      </c>
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>83293</v>
+        <v>83192</v>
       </c>
       <c r="B31" s="12" t="str">
         <f>TEXT(C31,"dddd")</f>
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C31" s="2">
-        <v>43594</v>
+        <v>43586</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1">
-        <v>4218</v>
+        <v>3866</v>
       </c>
       <c r="F31" s="1">
-        <v>17148</v>
+        <v>18163</v>
       </c>
       <c r="G31" s="1">
-        <v>444</v>
+        <v>191</v>
       </c>
       <c r="H31" s="1">
-        <v>1296</v>
+        <v>1305</v>
       </c>
       <c r="I31" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H30)/H30</f>
-        <v>1.5455950540958269E-3</v>
+        <v>7.6732673267326731E-2</v>
       </c>
       <c r="J31" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.24597620713785864</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.17549593717372555</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>12</v>
@@ -9335,61 +9688,64 @@
         <v>11</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="S31" s="1">
-        <v>21366</v>
+        <v>22029</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
+      <c r="V31" s="1">
+        <f t="shared" si="0"/>
+        <v>22029</v>
+      </c>
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>83318</v>
+        <v>82931</v>
       </c>
       <c r="B32" s="12" t="str">
         <f>TEXT(C32,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="C32" s="2">
-        <v>43598</v>
+        <v>43563</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1">
-        <v>3668</v>
+        <v>3640</v>
       </c>
       <c r="F32" s="1">
-        <v>17743</v>
+        <v>18232</v>
       </c>
       <c r="G32" s="1">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="H32" s="1">
-        <v>1298</v>
+        <v>1269</v>
       </c>
       <c r="I32" s="30">
         <f>(Table1[[#This Row],['# Unsubscribed]]-H31)/H31</f>
-        <v>1.5432098765432098E-3</v>
+        <v>-2.7586206896551724E-2</v>
       </c>
       <c r="J32" s="10">
-        <f>Table1[[#This Row],[Open Rate]]/Table1[[#This Row],[Delete/Not Open Rate]]</f>
-        <v>0.20672941441695317</v>
+        <f>Table1[[#This Row],[Open Rate]]/(SUM(Table1[[#This Row],[Open Rate]:[Delete/Not Open Rate]]))</f>
+        <v>0.16642282370153622</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>12</v>
@@ -9401,71 +9757,90 @@
         <v>11</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="S32" s="1">
-        <v>21411</v>
+        <v>21872</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
+      <c r="V32" s="1">
+        <f t="shared" si="0"/>
+        <v>21872</v>
+      </c>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="13">
         <f>AVERAGE(Table1[Open rate %])</f>
-        <v>0.23081320386824891</v>
+        <v>0.18699339341846477</v>
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f>SUM(E5:E9)</f>
+        <v>19581</v>
+      </c>
+      <c r="F37">
+        <f>SUM(F5:F9)</f>
+        <v>89087</v>
+      </c>
+      <c r="G37">
+        <f>SUM(E37:F37)</f>
+        <v>108668</v>
+      </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f>E37/G37</f>
+        <v>0.18019104060072882</v>
+      </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="10:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="12:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10028,7 +10403,7 @@
     <sortCondition ref="A1:A251"/>
   </sortState>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10042,7 +10417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G32">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10055,18 +10430,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V16">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FFFF7C80"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z9:Z16 N42:N1048576 N33 I1:I32">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10080,7 +10445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F32 H33 H42:H1048576">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10089,6 +10454,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{18721F95-4C62-4E78-83E2-40C6BD9BD7E9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2EE8E8C3-35C9-4F23-9790-3BD087226003}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10153,6 +10532,19 @@
           </x14:cfRule>
           <xm:sqref>F1:F32 H33 H42:H1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2EE8E8C3-35C9-4F23-9790-3BD087226003}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V1:V1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -10161,251 +10553,410 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E29"/>
+  <dimension ref="A3:E27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S23:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="13"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6">
         <v>14725</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="6">
+        <v>50708</v>
+      </c>
+      <c r="D4">
+        <f>SUM(B4:C4)</f>
+        <v>65433</v>
+      </c>
+      <c r="E4" s="13">
+        <f>GETPIVOTDATA("Sum of Open Rate",$A$3,"Category","Arts &amp; Entertainment")/D4</f>
+        <v>0.22503935323154983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B5" s="6">
         <v>19581</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
+        <v>89087</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D12" si="0">SUM(B5:C5)</f>
+        <v>108668</v>
+      </c>
+      <c r="E5" s="13">
+        <f>GETPIVOTDATA("Sum of Open Rate",$A$3,"Category","Dine Out/Giving")/D5</f>
+        <v>0.18019104060072882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="6">
         <v>18778</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="6">
+        <v>89948</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>108726</v>
+      </c>
+      <c r="E6" s="13">
+        <f>GETPIVOTDATA("Sum of Open Rate",$A$3,"Category","Monthly")/D6</f>
+        <v>0.17270937954123208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B7" s="6">
         <v>25553</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
+        <v>104975</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>130528</v>
+      </c>
+      <c r="E7" s="13">
+        <f>GETPIVOTDATA("Sum of Open Rate",$A$3,"Category","Professional Develop")/D7</f>
+        <v>0.19576642559450846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B8" s="6">
         <v>7416</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
+        <v>36048</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>43464</v>
+      </c>
+      <c r="E8" s="13">
+        <f>GETPIVOTDATA("Sum of Open Rate",$A$3,"Category","SA Elections")/D8</f>
+        <v>0.17062396466040861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="6">
         <v>8746</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
+        <v>34661</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>43407</v>
+      </c>
+      <c r="E9" s="13">
+        <f>GETPIVOTDATA("Sum of Open Rate",$A$3,"Category","SA Leadership Awards")/D9</f>
+        <v>0.20148823922408829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="6">
         <v>8748</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="6">
+        <v>34535</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>43283</v>
+      </c>
+      <c r="E10" s="13">
+        <f>GETPIVOTDATA("Sum of Open Rate",$A$3,"Category","Scholarship")/D10</f>
+        <v>0.20211168357091699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="6">
         <v>15043</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="6">
+        <v>71909</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>86952</v>
+      </c>
+      <c r="E11" s="13">
+        <f>GETPIVOTDATA("Sum of Open Rate",$A$3,"Category","Sports")/D11</f>
+        <v>0.17300349618180144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B12" s="6">
         <v>7506</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="6">
+        <v>36395</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>43901</v>
+      </c>
+      <c r="E12" s="13">
+        <f>GETPIVOTDATA("Sum of Open Rate",$A$3,"Category","Volunteer")/D12</f>
+        <v>0.1709756042003599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B13" s="6">
         <v>126096</v>
       </c>
+      <c r="C13" s="6">
+        <v>548266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="6">
+        <v>14725</v>
+      </c>
+      <c r="C19" s="6">
+        <v>50708</v>
+      </c>
+      <c r="D19">
+        <f>SUM(B19:C19)</f>
+        <v>65433</v>
+      </c>
+      <c r="E19" s="31">
+        <f>B19/D19</f>
+        <v>0.22503935323154983</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="6">
+        <v>8748</v>
+      </c>
+      <c r="C20" s="6">
+        <v>34535</v>
+      </c>
+      <c r="D20">
+        <f>SUM(B20:C20)</f>
+        <v>43283</v>
+      </c>
+      <c r="E20" s="31">
+        <f>B20/D20</f>
+        <v>0.20211168357091699</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="6">
+        <v>8746</v>
+      </c>
+      <c r="C21" s="6">
+        <v>34661</v>
+      </c>
+      <c r="D21">
+        <f>SUM(B21:C21)</f>
+        <v>43407</v>
+      </c>
+      <c r="E21" s="31">
+        <f>B21/D21</f>
+        <v>0.20148823922408829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="6">
         <v>25553</v>
       </c>
-      <c r="C21" s="13">
-        <f>B21/SUM($B$21:$B$29)</f>
-        <v>0.20264718944296409</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22">
+      <c r="C22" s="6">
+        <v>104975</v>
+      </c>
+      <c r="D22">
+        <f>SUM(B22:C22)</f>
+        <v>130528</v>
+      </c>
+      <c r="E22" s="31">
+        <f>B22/D22</f>
+        <v>0.19576642559450846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="6">
         <v>19581</v>
       </c>
-      <c r="C22" s="13">
-        <f>B22/SUM($B$21:$B$29)</f>
-        <v>0.15528644842025124</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23">
+      <c r="C23" s="6">
+        <v>89087</v>
+      </c>
+      <c r="D23">
+        <f>SUM(B23:C23)</f>
+        <v>108668</v>
+      </c>
+      <c r="E23" s="31">
+        <f>B23/D23</f>
+        <v>0.18019104060072882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="6">
+        <v>15043</v>
+      </c>
+      <c r="C24" s="6">
+        <v>71909</v>
+      </c>
+      <c r="D24">
+        <f>SUM(B24:C24)</f>
+        <v>86952</v>
+      </c>
+      <c r="E24" s="31">
+        <f>B24/D24</f>
+        <v>0.17300349618180144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="6">
         <v>18778</v>
       </c>
-      <c r="C23" s="13">
-        <f>B23/SUM($B$21:$B$29)</f>
-        <v>0.14891828448166478</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24">
-        <v>15043</v>
-      </c>
-      <c r="C24" s="13">
-        <f>B24/SUM($B$21:$B$29)</f>
-        <v>0.11929799517827687</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25">
-        <v>14725</v>
-      </c>
-      <c r="C25" s="13">
-        <f>B25/SUM($B$21:$B$29)</f>
-        <v>0.11677610709300851</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25" s="13"/>
+      <c r="C25" s="6">
+        <v>89948</v>
+      </c>
+      <c r="D25">
+        <f>SUM(B25:C25)</f>
+        <v>108726</v>
+      </c>
+      <c r="E25" s="31">
+        <f>B25/D25</f>
+        <v>0.17270937954123208</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26">
-        <v>8748</v>
-      </c>
-      <c r="C26" s="13">
-        <f>B26/SUM($B$21:$B$29)</f>
-        <v>6.9375713741910927E-2</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="6">
+        <v>7506</v>
+      </c>
+      <c r="C26" s="6">
+        <v>36395</v>
+      </c>
+      <c r="D26">
+        <f>SUM(B26:C26)</f>
+        <v>43901</v>
+      </c>
+      <c r="E26" s="31">
+        <f>B26/D26</f>
+        <v>0.1709756042003599</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27">
-        <v>8746</v>
-      </c>
-      <c r="C27" s="13">
-        <f>B27/SUM($B$21:$B$29)</f>
-        <v>6.9359852810557038E-2</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28">
-        <v>7506</v>
-      </c>
-      <c r="C28" s="13">
-        <f>B28/SUM($B$21:$B$29)</f>
-        <v>5.9526075371145792E-2</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B29">
+      <c r="B27" s="6">
         <v>7416</v>
       </c>
-      <c r="C29" s="13">
-        <f>B29/SUM($B$21:$B$29)</f>
-        <v>5.8812333460220786E-2</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29" s="13"/>
+      <c r="C27" s="6">
+        <v>36048</v>
+      </c>
+      <c r="D27">
+        <f>SUM(B27:C27)</f>
+        <v>43464</v>
+      </c>
+      <c r="E27" s="31">
+        <f>B27/D27</f>
+        <v>0.17062396466040861</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A20:E29">
-    <sortState ref="A21:E29">
-      <sortCondition descending="1" ref="B20:B29"/>
+  <autoFilter ref="A18:E27">
+    <sortState ref="A19:E27">
+      <sortCondition descending="1" ref="E18:E27"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10418,7 +10969,7 @@
   <dimension ref="A3:D30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10433,12 +10984,12 @@
         <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6">
         <v>2589</v>
@@ -10446,7 +10997,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B5" s="6">
         <v>597</v>
@@ -10521,16 +11072,16 @@
         <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B21">
         <v>5291</v>
@@ -10543,7 +11094,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22">
         <v>2589</v>
@@ -10556,7 +11107,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23">
         <v>2240</v>
@@ -10595,7 +11146,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B26">
         <v>597</v>
@@ -10664,7 +11215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T233"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
@@ -10701,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>110</v>
@@ -10722,10 +11273,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>107</v>
@@ -10746,10 +11297,10 @@
         <v>8</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>109</v>
@@ -10808,10 +11359,10 @@
         <v>0.23765012463176977</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T2" s="1"/>
     </row>
@@ -10868,7 +11419,7 @@
         <v>0.19256148770245951</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>116</v>
@@ -10931,7 +11482,7 @@
         <v>118</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="T4" s="1"/>
     </row>
@@ -10991,7 +11542,7 @@
         <v>118</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="T5" s="1"/>
     </row>
@@ -11051,7 +11602,7 @@
         <v>118</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="T6" s="1"/>
     </row>
@@ -11108,7 +11659,7 @@
         <v>0.20128868818151779</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>116</v>
@@ -11170,7 +11721,7 @@
         <v>0.21721356756159541</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>116</v>
@@ -11233,7 +11784,7 @@
         <v>118</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="T9" s="1"/>
     </row>
@@ -11293,7 +11844,7 @@
         <v>118</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="T10" s="1"/>
     </row>
@@ -11350,7 +11901,7 @@
         <v>0.22929971988795519</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>117</v>
@@ -11410,7 +11961,7 @@
         <v>0.21042319749216301</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>119</v>
@@ -11470,7 +12021,7 @@
         <v>0.22643315688703683</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>117</v>
@@ -11530,7 +12081,7 @@
         <v>0.21396460479144142</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>117</v>
@@ -11590,7 +12141,7 @@
         <v>0.27578897786151674</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>117</v>
@@ -11650,7 +12201,7 @@
         <v>0.21448735320686541</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>116</v>
@@ -11710,7 +12261,7 @@
         <v>0.20475279978148048</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>115</v>
@@ -11770,7 +12321,7 @@
         <v>0.20672941441695317</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>115</v>
@@ -11830,7 +12381,7 @@
         <v>0.24535740814810583</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>114</v>
@@ -11890,7 +12441,7 @@
         <v>0.25944055944055944</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>114</v>
@@ -11950,7 +12501,7 @@
         <v>0.21888995974828504</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>116</v>
@@ -12010,7 +12561,7 @@
         <v>0.17865739502540787</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>119</v>
@@ -12070,7 +12621,7 @@
         <v>0.25459947434578906</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>117</v>
@@ -12130,7 +12681,7 @@
         <v>0.20578724353256023</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>119</v>
@@ -12190,7 +12741,7 @@
         <v>0.2442287814402205</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>119</v>
@@ -12310,7 +12861,7 @@
         <v>0.26224867113473538</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>117</v>
@@ -12370,7 +12921,7 @@
         <v>0.19964896884598507</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>120</v>
@@ -12490,7 +13041,7 @@
         <v>0.21285030006056269</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>120</v>
@@ -12550,10 +13101,10 @@
         <v>0.30742959856201318</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T31" s="1"/>
     </row>
@@ -12612,10 +13163,10 @@
         <v>0.32989123793229869</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T32" s="1"/>
     </row>
@@ -12643,10 +13194,10 @@
         <v>10</v>
       </c>
       <c r="F36" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>107</v>
@@ -12667,10 +13218,10 @@
         <v>8</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P36" s="17" t="s">
         <v>109</v>
@@ -12712,7 +13263,7 @@
         <v>0.17865739502540787</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P37" s="21" t="s">
         <v>119</v>
@@ -12754,7 +13305,7 @@
         <v>0.20475279978148048</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P38" s="25" t="s">
         <v>115</v>
@@ -12796,7 +13347,7 @@
         <v>0.19964896884598507</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P39" s="21" t="s">
         <v>120</v>
@@ -12838,7 +13389,7 @@
         <v>0.21285030006056269</v>
       </c>
       <c r="O40" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P40" s="25" t="s">
         <v>120</v>
@@ -12883,7 +13434,7 @@
         <v>118</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="3:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12925,7 +13476,7 @@
         <v>118</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="3:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12964,7 +13515,7 @@
         <v>0.20578724353256023</v>
       </c>
       <c r="O43" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P43" s="21" t="s">
         <v>119</v>
@@ -13006,7 +13557,7 @@
         <v>0.22929971988795519</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P44" s="25" t="s">
         <v>117</v>
@@ -13048,7 +13599,7 @@
         <v>0.22643315688703683</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P45" s="21" t="s">
         <v>117</v>
@@ -13090,7 +13641,7 @@
         <v>0.20672941441695317</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P46" s="25" t="s">
         <v>115</v>
@@ -13135,7 +13686,7 @@
         <v>118</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="3:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13177,7 +13728,7 @@
         <v>118</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13219,7 +13770,7 @@
         <v>118</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13258,10 +13809,10 @@
         <v>0.23765012463176977</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13300,7 +13851,7 @@
         <v>0.21396460479144142</v>
       </c>
       <c r="O51" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P51" s="21" t="s">
         <v>117</v>
@@ -13342,7 +13893,7 @@
         <v>0.24535740814810583</v>
       </c>
       <c r="O52" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P52" s="25" t="s">
         <v>114</v>
@@ -13384,7 +13935,7 @@
         <v>0.25944055944055944</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P53" s="21" t="s">
         <v>114</v>
@@ -13426,7 +13977,7 @@
         <v>0.27578897786151674</v>
       </c>
       <c r="O54" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P54" s="25" t="s">
         <v>117</v>
@@ -14133,8 +14684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14153,10 +14704,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>107</v>
@@ -14177,10 +14728,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>109</v>
@@ -14222,10 +14773,10 @@
         <v>0.23765012463176977</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -14267,7 +14818,7 @@
         <v>118</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -14309,7 +14860,7 @@
         <v>118</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -14351,7 +14902,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -14393,7 +14944,7 @@
         <v>118</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -14435,7 +14986,7 @@
         <v>118</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -14474,7 +15025,7 @@
         <v>0.22929971988795519</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N8" s="25" t="s">
         <v>117</v>
@@ -14516,7 +15067,7 @@
         <v>0.22643315688703683</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>117</v>
@@ -14558,7 +15109,7 @@
         <v>0.21396460479144142</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" s="21" t="s">
         <v>117</v>
@@ -14600,7 +15151,7 @@
         <v>0.27578897786151674</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N11" s="25" t="s">
         <v>117</v>
@@ -14642,7 +15193,7 @@
         <v>0.20475279978148048</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N12" s="25" t="s">
         <v>115</v>
@@ -14684,7 +15235,7 @@
         <v>0.20672941441695317</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N13" s="25" t="s">
         <v>115</v>
@@ -14726,7 +15277,7 @@
         <v>0.24535740814810583</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N14" s="25" t="s">
         <v>114</v>
@@ -14768,7 +15319,7 @@
         <v>0.25944055944055944</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N15" s="21" t="s">
         <v>114</v>
@@ -14810,7 +15361,7 @@
         <v>0.17865739502540787</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N16" s="21" t="s">
         <v>119</v>
@@ -14852,7 +15403,7 @@
         <v>0.20578724353256023</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N17" s="21" t="s">
         <v>119</v>
@@ -14894,7 +15445,7 @@
         <v>0.19964896884598507</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N18" s="21" t="s">
         <v>120</v>
@@ -14936,7 +15487,7 @@
         <v>0.21285030006056269</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N19" s="25" t="s">
         <v>120</v>
@@ -14947,12 +15498,12 @@
         <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="6">
         <v>17652</v>
@@ -14960,7 +15511,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B26" s="6">
         <v>89087</v>
@@ -15014,68 +15565,96 @@
         <v>320639</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B42">
         <v>89087</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="13">
+        <f>B42/SUM($B$42:$B$48)</f>
+        <v>0.27784205913815851</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>117</v>
       </c>
       <c r="B43">
         <v>70165</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="13">
+        <f t="shared" ref="C43:C48" si="0">B43/SUM($B$42:$B$48)</f>
+        <v>0.21882865153646314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>119</v>
       </c>
       <c r="B44">
         <v>36631</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="13">
+        <f t="shared" si="0"/>
+        <v>0.11424374452265632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>120</v>
       </c>
       <c r="B45">
         <v>36395</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="13">
+        <f t="shared" si="0"/>
+        <v>0.11350771428304106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
       <c r="B46">
         <v>36048</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="13">
+        <f t="shared" si="0"/>
+        <v>0.11242550032903047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>114</v>
       </c>
       <c r="B47">
         <v>34661</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="13">
+        <f t="shared" si="0"/>
+        <v>0.10809976328518989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48">
         <v>17652</v>
+      </c>
+      <c r="C48" s="13">
+        <f t="shared" si="0"/>
+        <v>5.5052566905460655E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15192,7 +15771,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>110</v>
@@ -15207,22 +15786,22 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>109</v>
@@ -15284,7 +15863,7 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>116</v>
@@ -15353,7 +15932,7 @@
         <v>118</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>12</v>
@@ -15416,7 +15995,7 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>117</v>
@@ -15482,7 +16061,7 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>119</v>
@@ -15548,7 +16127,7 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>117</v>
@@ -15614,10 +16193,10 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>12</v>
@@ -15680,7 +16259,7 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>117</v>
@@ -15746,7 +16325,7 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>116</v>
@@ -15775,13 +16354,13 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="X9" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Y9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z9" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15823,7 +16402,7 @@
         <v>118</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>12</v>
@@ -15849,7 +16428,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="X10" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y10">
         <f>H2</f>
@@ -15893,7 +16472,7 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>116</v>
@@ -15922,7 +16501,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="X11" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y11">
         <f>H9</f>
@@ -15969,7 +16548,7 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>114</v>
@@ -15998,7 +16577,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="X12" s="32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y12">
         <f>H11</f>
@@ -16045,7 +16624,7 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>119</v>
@@ -16074,7 +16653,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="X13" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y13">
         <f>H17</f>
@@ -16121,7 +16700,7 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>119</v>
@@ -16150,7 +16729,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="X14" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y14">
         <f>H26</f>
@@ -16200,7 +16779,7 @@
         <v>118</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>12</v>
@@ -16226,7 +16805,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="X15" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y15">
         <f>H32</f>
@@ -16275,10 +16854,10 @@
         <v>108</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>12</v>
@@ -16343,7 +16922,7 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>114</v>
@@ -16409,7 +16988,7 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>116</v>
@@ -16475,10 +17054,10 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>12</v>
@@ -16541,7 +17120,7 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>120</v>
@@ -16610,7 +17189,7 @@
         <v>118</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>12</v>
@@ -16739,7 +17318,7 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>117</v>
@@ -16805,7 +17384,7 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>117</v>
@@ -16874,7 +17453,7 @@
         <v>118</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>12</v>
@@ -16939,7 +17518,7 @@
         <v>106</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>116</v>
@@ -17005,7 +17584,7 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>120</v>
@@ -17071,7 +17650,7 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>115</v>
@@ -17137,7 +17716,7 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>119</v>
@@ -17203,7 +17782,7 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>117</v>
@@ -17335,7 +17914,7 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>115</v>
